--- a/upload-excel/excel_value.xlsx
+++ b/upload-excel/excel_value.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>idconsultas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>legajo_profesor</t>
   </si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>viernes</t>
+  </si>
+  <si>
+    <t>minuto_inicio</t>
+  </si>
+  <si>
+    <t>minuto_fin</t>
   </si>
 </sst>
 </file>
@@ -97,8 +100,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,23 +382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,115 +408,133 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1123</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1123</v>
       </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3">
+        <v>621</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1123</v>
-      </c>
-      <c r="C3">
-        <v>621</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5544</v>
+      </c>
+      <c r="B4">
+        <v>453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5544</v>
-      </c>
-      <c r="C4">
-        <v>453</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9658</v>
+      </c>
+      <c r="B5">
+        <v>782</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9658</v>
-      </c>
-      <c r="C5">
-        <v>782</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3265</v>
+      </c>
+      <c r="B6">
+        <v>584</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3265</v>
-      </c>
-      <c r="C6">
-        <v>584</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/upload-excel/excel_value.xlsx
+++ b/upload-excel/excel_value.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>legajo_profesor</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>minuto_fin</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>S354</t>
+  </si>
+  <si>
+    <t>S489</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +431,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1123</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
+        <v>105698</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -445,10 +454,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1123</v>
-      </c>
-      <c r="B3">
-        <v>621</v>
+        <v>105698</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>11</v>
@@ -468,13 +477,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5544</v>
-      </c>
-      <c r="B4">
-        <v>453</v>
+        <v>105698</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -491,10 +500,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9658</v>
-      </c>
-      <c r="B5">
-        <v>782</v>
+        <v>104891</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
@@ -514,10 +523,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3265</v>
-      </c>
-      <c r="B6">
-        <v>584</v>
+        <v>104891</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
